--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t>Course</t>
   </si>
@@ -376,21 +376,6 @@
     <t>ACCT-650</t>
   </si>
   <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
-    <t>COLLEGE O</t>
-  </si>
-  <si>
-    <t>MAYS B</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
     <t>BUAD-620</t>
   </si>
   <si>
@@ -445,6 +430,42 @@
     <t>6.90%</t>
   </si>
   <si>
+    <t>FINC-381</t>
+  </si>
+  <si>
+    <t>28.57%</t>
+  </si>
+  <si>
+    <t>42.86%</t>
+  </si>
+  <si>
+    <t>FINC-409</t>
+  </si>
+  <si>
+    <t>WOLKEN L</t>
+  </si>
+  <si>
+    <t>25.81%</t>
+  </si>
+  <si>
+    <t>32.80%</t>
+  </si>
+  <si>
+    <t>11.83%</t>
+  </si>
+  <si>
+    <t>3.76%</t>
+  </si>
+  <si>
+    <t>FINC-424</t>
+  </si>
+  <si>
+    <t>HALLERMANN D</t>
+  </si>
+  <si>
+    <t>22.22%</t>
+  </si>
+  <si>
     <t>FINC-445</t>
   </si>
   <si>
@@ -502,9 +523,6 @@
     <t>FINC-635</t>
   </si>
   <si>
-    <t>WOLKEN L</t>
-  </si>
-  <si>
     <t>61.22%</t>
   </si>
   <si>
@@ -526,441 +544,510 @@
     <t>FINC-665</t>
   </si>
   <si>
-    <t>36.59%</t>
-  </si>
-  <si>
-    <t>58.54%</t>
+    <t>36.14%</t>
+  </si>
+  <si>
+    <t>59.04%</t>
+  </si>
+  <si>
+    <t>4.82%</t>
+  </si>
+  <si>
+    <t>IBUS-402</t>
+  </si>
+  <si>
+    <t>MCDANIEL S</t>
+  </si>
+  <si>
+    <t>95.45%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>BURTON L</t>
+  </si>
+  <si>
+    <t>IBUS-403</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>IBUS-450</t>
+  </si>
+  <si>
+    <t>PANINA D</t>
+  </si>
+  <si>
+    <t>88.24%</t>
+  </si>
+  <si>
+    <t>11.76%</t>
+  </si>
+  <si>
+    <t>IBUS-456</t>
+  </si>
+  <si>
+    <t>23.53%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>IBUS-692</t>
+  </si>
+  <si>
+    <t>ISYS-209</t>
+  </si>
+  <si>
+    <t>CURTSINGER W</t>
+  </si>
+  <si>
+    <t>34.47%</t>
+  </si>
+  <si>
+    <t>43.83%</t>
+  </si>
+  <si>
+    <t>16.17%</t>
+  </si>
+  <si>
+    <t>2.98%</t>
+  </si>
+  <si>
+    <t>2.55%</t>
+  </si>
+  <si>
+    <t>ISYS-210</t>
+  </si>
+  <si>
+    <t>JAMIESON T</t>
+  </si>
+  <si>
+    <t>58.82%</t>
+  </si>
+  <si>
+    <t>39.22%</t>
+  </si>
+  <si>
+    <t>PHINNEY T</t>
+  </si>
+  <si>
+    <t>63.33%</t>
+  </si>
+  <si>
+    <t>3.33%</t>
+  </si>
+  <si>
+    <t>ISYS-250</t>
+  </si>
+  <si>
+    <t>BOONE E</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>ISYS-601</t>
+  </si>
+  <si>
+    <t>57.89%</t>
+  </si>
+  <si>
+    <t>36.84%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>ISYS-610</t>
+  </si>
+  <si>
+    <t>WHITTEN G</t>
+  </si>
+  <si>
+    <t>ISYS-615</t>
+  </si>
+  <si>
+    <t>BECKER A</t>
+  </si>
+  <si>
+    <t>ISYS-620</t>
+  </si>
+  <si>
+    <t>MANLEY M</t>
+  </si>
+  <si>
+    <t>37.78%</t>
+  </si>
+  <si>
+    <t>57.78%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>MGMT-209</t>
+  </si>
+  <si>
+    <t>SWIM K</t>
+  </si>
+  <si>
+    <t>34.07%</t>
+  </si>
+  <si>
+    <t>43.70%</t>
+  </si>
+  <si>
+    <t>11.85%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>HAILEY C</t>
+  </si>
+  <si>
+    <t>18.69%</t>
+  </si>
+  <si>
+    <t>29.29%</t>
+  </si>
+  <si>
+    <t>37.88%</t>
+  </si>
+  <si>
+    <t>11.62%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>MGMT-211</t>
+  </si>
+  <si>
+    <t>5.71%</t>
+  </si>
+  <si>
+    <t>48.57%</t>
+  </si>
+  <si>
+    <t>31.43%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
+    <t>MGMT-212</t>
+  </si>
+  <si>
+    <t>29.17%</t>
+  </si>
+  <si>
+    <t>20.83%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>MGMT-309</t>
+  </si>
+  <si>
+    <t>WESSON L</t>
+  </si>
+  <si>
+    <t>20.29%</t>
+  </si>
+  <si>
+    <t>31.40%</t>
+  </si>
+  <si>
+    <t>39.61%</t>
+  </si>
+  <si>
+    <t>5.80%</t>
+  </si>
+  <si>
+    <t>2.90%</t>
+  </si>
+  <si>
+    <t>MGMT-363</t>
+  </si>
+  <si>
+    <t>26.32%</t>
+  </si>
+  <si>
+    <t>48.68%</t>
+  </si>
+  <si>
+    <t>19.74%</t>
+  </si>
+  <si>
+    <t>MGMT-373</t>
+  </si>
+  <si>
+    <t>SALADINO S</t>
+  </si>
+  <si>
+    <t>92.31%</t>
+  </si>
+  <si>
+    <t>MGMT-439</t>
+  </si>
+  <si>
+    <t>STREET J</t>
+  </si>
+  <si>
+    <t>80.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>MGMT-450</t>
+  </si>
+  <si>
+    <t>76.47%</t>
+  </si>
+  <si>
+    <t>MGMT-461</t>
+  </si>
+  <si>
+    <t>LEWIS D</t>
+  </si>
+  <si>
+    <t>MGMT-466</t>
+  </si>
+  <si>
+    <t>TIHANYI L</t>
+  </si>
+  <si>
+    <t>38.46%</t>
+  </si>
+  <si>
+    <t>FLINT G</t>
+  </si>
+  <si>
+    <t>68.97%</t>
+  </si>
+  <si>
+    <t>31.03%</t>
+  </si>
+  <si>
+    <t>MGMT-484</t>
+  </si>
+  <si>
+    <t>MORA K</t>
+  </si>
+  <si>
+    <t>84.62%</t>
+  </si>
+  <si>
+    <t>MGMT-637</t>
+  </si>
+  <si>
+    <t>LESTER R</t>
+  </si>
+  <si>
+    <t>67.57%</t>
+  </si>
+  <si>
+    <t>32.43%</t>
+  </si>
+  <si>
+    <t>92.59%</t>
+  </si>
+  <si>
+    <t>MGMT-643</t>
+  </si>
+  <si>
+    <t>65.52%</t>
+  </si>
+  <si>
+    <t>31.90%</t>
+  </si>
+  <si>
+    <t>2.59%</t>
+  </si>
+  <si>
+    <t>MGMT-655</t>
+  </si>
+  <si>
+    <t>KOUFTEROS B</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>MGMT-679</t>
+  </si>
+  <si>
+    <t>PUSTAY M</t>
+  </si>
+  <si>
+    <t>76.60%</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>MGMT-680</t>
+  </si>
+  <si>
+    <t>69.01%</t>
+  </si>
+  <si>
+    <t>30.99%</t>
+  </si>
+  <si>
+    <t>MKTG-321</t>
+  </si>
+  <si>
+    <t>PARISH J</t>
+  </si>
+  <si>
+    <t>60.00%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>MKTG-335</t>
+  </si>
+  <si>
+    <t>LORING A</t>
+  </si>
+  <si>
+    <t>MKTG-345</t>
+  </si>
+  <si>
+    <t>MKTG-401</t>
+  </si>
+  <si>
+    <t>GRESHAM L</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>MKTG-402</t>
+  </si>
+  <si>
+    <t>77.78%</t>
+  </si>
+  <si>
+    <t>96.55%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>MKTG-403</t>
+  </si>
+  <si>
+    <t>94.12%</t>
+  </si>
+  <si>
+    <t>MKTG-409</t>
+  </si>
+  <si>
+    <t>SEIPP L</t>
+  </si>
+  <si>
+    <t>40.21%</t>
+  </si>
+  <si>
+    <t>18.52%</t>
+  </si>
+  <si>
+    <t>PRIDE W</t>
+  </si>
+  <si>
+    <t>19.32%</t>
+  </si>
+  <si>
+    <t>35.23%</t>
+  </si>
+  <si>
+    <t>6.82%</t>
+  </si>
+  <si>
+    <t>3.41%</t>
+  </si>
+  <si>
+    <t>27.73%</t>
+  </si>
+  <si>
+    <t>MKTG-440</t>
+  </si>
+  <si>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>MKTG-484</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>MKTG-621</t>
+  </si>
+  <si>
+    <t>73.47%</t>
+  </si>
+  <si>
+    <t>26.53%</t>
+  </si>
+  <si>
+    <t>MKTG-638</t>
+  </si>
+  <si>
+    <t>YADAV M</t>
+  </si>
+  <si>
+    <t>SCMT-300</t>
+  </si>
+  <si>
+    <t>WHITCOMB D</t>
+  </si>
+  <si>
+    <t>46.15%</t>
+  </si>
+  <si>
+    <t>SCMT-303</t>
+  </si>
+  <si>
+    <t>RANGAN S</t>
+  </si>
+  <si>
+    <t>37.04%</t>
+  </si>
+  <si>
+    <t>25.93%</t>
+  </si>
+  <si>
+    <t>DARCEY L</t>
+  </si>
+  <si>
+    <t>48.78%</t>
+  </si>
+  <si>
+    <t>34.15%</t>
+  </si>
+  <si>
+    <t>9.76%</t>
   </si>
   <si>
     <t>4.88%</t>
   </si>
   <si>
-    <t>HALLERMANN D</t>
-  </si>
-  <si>
-    <t>36.14%</t>
-  </si>
-  <si>
-    <t>59.04%</t>
-  </si>
-  <si>
-    <t>4.82%</t>
-  </si>
-  <si>
-    <t>IBUS-692</t>
-  </si>
-  <si>
-    <t>ISYS-209</t>
-  </si>
-  <si>
-    <t>CURTSINGER W</t>
-  </si>
-  <si>
-    <t>34.47%</t>
-  </si>
-  <si>
-    <t>43.83%</t>
-  </si>
-  <si>
-    <t>16.17%</t>
-  </si>
-  <si>
-    <t>2.98%</t>
-  </si>
-  <si>
-    <t>2.55%</t>
-  </si>
-  <si>
-    <t>ISYS-210</t>
-  </si>
-  <si>
-    <t>JAMIESON T</t>
-  </si>
-  <si>
-    <t>58.82%</t>
-  </si>
-  <si>
-    <t>39.22%</t>
-  </si>
-  <si>
-    <t>PHINNEY T</t>
-  </si>
-  <si>
-    <t>63.33%</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>ISYS-615</t>
-  </si>
-  <si>
-    <t>BECKER A</t>
-  </si>
-  <si>
-    <t>54.17%</t>
-  </si>
-  <si>
-    <t>ISYS-620</t>
-  </si>
-  <si>
-    <t>MANLEY M</t>
-  </si>
-  <si>
-    <t>37.78%</t>
-  </si>
-  <si>
-    <t>57.78%</t>
-  </si>
-  <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>MGMT-209</t>
-  </si>
-  <si>
-    <t>SWIM K</t>
-  </si>
-  <si>
-    <t>34.07%</t>
-  </si>
-  <si>
-    <t>43.70%</t>
-  </si>
-  <si>
-    <t>11.85%</t>
-  </si>
-  <si>
-    <t>2.96%</t>
-  </si>
-  <si>
-    <t>HAILEY C</t>
-  </si>
-  <si>
-    <t>18.69%</t>
-  </si>
-  <si>
-    <t>29.29%</t>
-  </si>
-  <si>
-    <t>37.88%</t>
-  </si>
-  <si>
-    <t>11.62%</t>
-  </si>
-  <si>
-    <t>2.53%</t>
-  </si>
-  <si>
-    <t>MGMT-211</t>
-  </si>
-  <si>
-    <t>5.71%</t>
-  </si>
-  <si>
-    <t>48.57%</t>
-  </si>
-  <si>
-    <t>31.43%</t>
-  </si>
-  <si>
-    <t>8.57%</t>
-  </si>
-  <si>
-    <t>MGMT-212</t>
-  </si>
-  <si>
-    <t>29.17%</t>
-  </si>
-  <si>
-    <t>20.83%</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>MGMT-309</t>
-  </si>
-  <si>
-    <t>WESSON L</t>
-  </si>
-  <si>
-    <t>20.29%</t>
-  </si>
-  <si>
-    <t>31.40%</t>
-  </si>
-  <si>
-    <t>39.61%</t>
-  </si>
-  <si>
-    <t>5.80%</t>
-  </si>
-  <si>
-    <t>2.90%</t>
-  </si>
-  <si>
-    <t>MGMT-373</t>
-  </si>
-  <si>
-    <t>SALADINO S</t>
-  </si>
-  <si>
-    <t>92.31%</t>
-  </si>
-  <si>
-    <t>MGMT-439</t>
-  </si>
-  <si>
-    <t>STREET J</t>
-  </si>
-  <si>
-    <t>80.00%</t>
-  </si>
-  <si>
-    <t>20.00%</t>
-  </si>
-  <si>
-    <t>MGMT-450</t>
-  </si>
-  <si>
-    <t>PANINA D</t>
-  </si>
-  <si>
-    <t>76.47%</t>
-  </si>
-  <si>
-    <t>23.53%</t>
-  </si>
-  <si>
-    <t>MGMT-461</t>
-  </si>
-  <si>
-    <t>LEWIS D</t>
-  </si>
-  <si>
-    <t>MGMT-466</t>
-  </si>
-  <si>
-    <t>TIHANYI L</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>FLINT G</t>
-  </si>
-  <si>
-    <t>68.97%</t>
-  </si>
-  <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>MGMT-484</t>
-  </si>
-  <si>
-    <t>MORA K</t>
-  </si>
-  <si>
-    <t>84.62%</t>
-  </si>
-  <si>
-    <t>MGMT-637</t>
-  </si>
-  <si>
-    <t>LESTER R</t>
-  </si>
-  <si>
-    <t>67.57%</t>
-  </si>
-  <si>
-    <t>32.43%</t>
-  </si>
-  <si>
-    <t>92.59%</t>
-  </si>
-  <si>
-    <t>MGMT-643</t>
-  </si>
-  <si>
-    <t>65.52%</t>
-  </si>
-  <si>
-    <t>31.90%</t>
-  </si>
-  <si>
-    <t>2.59%</t>
-  </si>
-  <si>
-    <t>MGMT-655</t>
-  </si>
-  <si>
-    <t>KOUFTEROS B</t>
-  </si>
-  <si>
-    <t>30.30%</t>
-  </si>
-  <si>
-    <t>MGMT-679</t>
-  </si>
-  <si>
-    <t>PUSTAY M</t>
-  </si>
-  <si>
-    <t>76.60%</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>MGMT-680</t>
-  </si>
-  <si>
-    <t>85.71%</t>
-  </si>
-  <si>
-    <t>69.01%</t>
-  </si>
-  <si>
-    <t>30.99%</t>
-  </si>
-  <si>
-    <t>MKTG-321</t>
-  </si>
-  <si>
-    <t>PARISH J</t>
-  </si>
-  <si>
-    <t>60.00%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>MKTG-335</t>
-  </si>
-  <si>
-    <t>LORING A</t>
-  </si>
-  <si>
-    <t>MKTG-345</t>
-  </si>
-  <si>
-    <t>MKTG-403</t>
-  </si>
-  <si>
-    <t>MCDANIEL S</t>
-  </si>
-  <si>
-    <t>94.12%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>MKTG-409</t>
-  </si>
-  <si>
-    <t>SEIPP L</t>
-  </si>
-  <si>
-    <t>40.21%</t>
-  </si>
-  <si>
-    <t>18.52%</t>
-  </si>
-  <si>
-    <t>PRIDE W</t>
-  </si>
-  <si>
-    <t>19.32%</t>
-  </si>
-  <si>
-    <t>35.23%</t>
-  </si>
-  <si>
-    <t>6.82%</t>
-  </si>
-  <si>
-    <t>3.41%</t>
-  </si>
-  <si>
-    <t>GRESHAM L</t>
-  </si>
-  <si>
-    <t>28.57%</t>
-  </si>
-  <si>
-    <t>27.73%</t>
-  </si>
-  <si>
-    <t>MKTG-440</t>
-  </si>
-  <si>
-    <t>90.91%</t>
-  </si>
-  <si>
-    <t>9.09%</t>
-  </si>
-  <si>
-    <t>MKTG-484</t>
-  </si>
-  <si>
-    <t>92.86%</t>
-  </si>
-  <si>
-    <t>MKTG-621</t>
-  </si>
-  <si>
-    <t>73.47%</t>
-  </si>
-  <si>
-    <t>26.53%</t>
-  </si>
-  <si>
-    <t>MKTG-638</t>
-  </si>
-  <si>
-    <t>COLLEGE T</t>
-  </si>
-  <si>
-    <t>YADAV M</t>
-  </si>
-  <si>
-    <t>SCMT-300</t>
-  </si>
-  <si>
-    <t>WHITCOMB D</t>
-  </si>
-  <si>
-    <t>46.15%</t>
-  </si>
-  <si>
-    <t>SCMT-303</t>
-  </si>
-  <si>
-    <t>RANGAN S</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>25.93%</t>
-  </si>
-  <si>
-    <t>DARCEY L</t>
-  </si>
-  <si>
-    <t>48.78%</t>
-  </si>
-  <si>
-    <t>34.15%</t>
-  </si>
-  <si>
-    <t>9.76%</t>
-  </si>
-  <si>
     <t>2.44%</t>
   </si>
   <si>
@@ -995,9 +1082,6 @@
   </si>
   <si>
     <t>SCMT-489</t>
-  </si>
-  <si>
-    <t>WHITTEN G</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,55 +2170,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
         <v>120</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>54</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>54</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
@@ -2155,403 +2198,362 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="B78" t="s">
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
         <v>123</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C80" t="n">
         <v>4</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>54</v>
       </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="B79" t="s">
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
         <v>124</v>
       </c>
-      <c r="C79" t="n">
-        <v>4</v>
-      </c>
-      <c r="D79" t="s">
-        <v>54</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="B82" t="s">
+      <c r="C83" t="n">
+        <v>2.778</v>
+      </c>
+      <c r="D83" t="s">
         <v>126</v>
       </c>
-      <c r="C82" t="n">
-        <v>4</v>
-      </c>
-      <c r="D82" t="s">
-        <v>54</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
+      <c r="E83" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
         <v>127</v>
       </c>
+      <c r="G83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H83" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="B85" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4</v>
-      </c>
-      <c r="D85" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>129</v>
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D86" t="s">
+        <v>132</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="B88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2.778</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" t="s">
         <v>131</v>
       </c>
-      <c r="E88" t="s">
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>139</v>
+      </c>
+      <c r="E92" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" t="s">
+        <v>139</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+      <c r="E95" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" t="s">
+        <v>145</v>
+      </c>
+      <c r="H95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.889</v>
+      </c>
+      <c r="D98" t="s">
         <v>35</v>
       </c>
-      <c r="F88" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" t="s">
-        <v>133</v>
-      </c>
-      <c r="H88" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" t="s">
-        <v>136</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D91" t="s">
-        <v>137</v>
-      </c>
-      <c r="E91" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" t="s">
-        <v>139</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3.517</v>
-      </c>
-      <c r="D94" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" t="s">
-        <v>141</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
+        <v>149</v>
+      </c>
+      <c r="G98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" t="s">
+        <v>154</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>157</v>
+      </c>
+      <c r="E104" t="s">
+        <v>158</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="D107" t="s">
+        <v>161</v>
+      </c>
+      <c r="E107" t="s">
+        <v>161</v>
+      </c>
+      <c r="F107" t="s">
+        <v>162</v>
+      </c>
+      <c r="G107" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3.3215</v>
+      </c>
+      <c r="D110" t="s">
+        <v>165</v>
+      </c>
+      <c r="E110" t="s">
+        <v>166</v>
+      </c>
+      <c r="F110" t="s">
+        <v>167</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="B113" t="s">
         <v>142</v>
       </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" t="n">
-        <v>3.286</v>
-      </c>
-      <c r="D97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E97" t="s">
-        <v>146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>149</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>150</v>
-      </c>
-      <c r="E100" t="s">
-        <v>151</v>
-      </c>
-      <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="B103" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="D103" t="s">
-        <v>154</v>
-      </c>
-      <c r="E103" t="s">
-        <v>154</v>
-      </c>
-      <c r="F103" t="s">
-        <v>155</v>
-      </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="B106" t="s">
-        <v>157</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3.3215</v>
-      </c>
-      <c r="D106" t="s">
-        <v>158</v>
-      </c>
-      <c r="E106" t="s">
-        <v>159</v>
-      </c>
-      <c r="F106" t="s">
-        <v>160</v>
-      </c>
-      <c r="G106" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="B109" t="s">
-        <v>162</v>
-      </c>
-      <c r="C109" t="n">
+      <c r="C113" t="n">
         <v>3.51</v>
       </c>
-      <c r="D109" t="s">
-        <v>163</v>
-      </c>
-      <c r="E109" t="s">
-        <v>164</v>
-      </c>
-      <c r="F109" t="s">
-        <v>165</v>
-      </c>
-      <c r="G109" t="s">
-        <v>166</v>
-      </c>
-      <c r="H109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="B112" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D112" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" t="s">
-        <v>168</v>
-      </c>
-      <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" t="s">
+      <c r="D113" t="s">
         <v>169</v>
       </c>
+      <c r="E113" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" t="s">
+        <v>171</v>
+      </c>
+      <c r="G113" t="s">
+        <v>172</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="B115" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" t="n">
-        <v>3.317</v>
-      </c>
-      <c r="D115" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" t="s">
-        <v>171</v>
-      </c>
-      <c r="F115" t="s">
-        <v>172</v>
-      </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" t="s">
-        <v>14</v>
+      <c r="A115" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="B116" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C116" t="n">
-        <v>3.317</v>
+        <v>3.333</v>
       </c>
       <c r="D116" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F116" t="s">
-        <v>172</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
         <v>14</v>
@@ -2560,67 +2562,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.317</v>
-      </c>
-      <c r="D117" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" t="s">
-        <v>171</v>
-      </c>
-      <c r="F117" t="s">
-        <v>172</v>
-      </c>
-      <c r="G117" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="118" spans="1:8">
-      <c r="B118" t="s">
-        <v>173</v>
-      </c>
-      <c r="C118" t="n">
-        <v>3.3135</v>
-      </c>
-      <c r="D118" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="A118" t="s">
         <v>175</v>
-      </c>
-      <c r="F118" t="s">
-        <v>176</v>
-      </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="B119" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C119" t="n">
-        <v>3.317</v>
+        <v>3.3135</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="F119" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G119" t="s">
         <v>14</v>
@@ -2631,21 +2592,21 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="C122" t="n">
-        <v>4</v>
+        <v>3.954</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
@@ -2659,16 +2620,16 @@
     </row>
     <row r="123" spans="1:8">
       <c r="B123" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C123" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D123" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
@@ -2680,64 +2641,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="B124" t="s">
-        <v>144</v>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>123</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
-      <c r="D125" t="s">
-        <v>54</v>
-      </c>
-      <c r="E125" t="s">
-        <v>14</v>
-      </c>
-      <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" t="s">
-        <v>14</v>
+      <c r="A125" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>3.857</v>
       </c>
       <c r="D126" t="s">
-        <v>54</v>
+        <v>185</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
         <v>14</v>
@@ -2751,384 +2671,384 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="B129" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C129" t="n">
-        <v>3.047</v>
+        <v>3.882</v>
       </c>
       <c r="D129" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="E129" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F129" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="B132" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C132" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="D132" t="s">
+        <v>116</v>
+      </c>
+      <c r="E132" t="s">
+        <v>191</v>
+      </c>
+      <c r="F132" t="s">
+        <v>192</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="s">
+        <v>54</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" t="s">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="B138" t="s">
+        <v>195</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="D138" t="s">
+        <v>196</v>
+      </c>
+      <c r="E138" t="s">
+        <v>197</v>
+      </c>
+      <c r="F138" t="s">
+        <v>198</v>
+      </c>
+      <c r="G138" t="s">
+        <v>199</v>
+      </c>
+      <c r="H138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="B141" t="s">
+        <v>202</v>
+      </c>
+      <c r="C141" t="n">
         <v>3.549</v>
       </c>
-      <c r="D132" t="s">
-        <v>187</v>
-      </c>
-      <c r="E132" t="s">
-        <v>188</v>
-      </c>
-      <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="D141" t="s">
+        <v>203</v>
+      </c>
+      <c r="E141" t="s">
+        <v>204</v>
+      </c>
+      <c r="F141" t="s">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
         <v>118</v>
       </c>
-      <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="B133" t="s">
-        <v>189</v>
-      </c>
-      <c r="C133" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>190</v>
-      </c>
-      <c r="E133" t="s">
-        <v>35</v>
-      </c>
-      <c r="F133" t="s">
-        <v>191</v>
-      </c>
-      <c r="G133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="B136" t="s">
-        <v>193</v>
-      </c>
-      <c r="C136" t="n">
-        <v>3.292</v>
-      </c>
-      <c r="D136" t="s">
-        <v>30</v>
-      </c>
-      <c r="E136" t="s">
-        <v>194</v>
-      </c>
-      <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="B139" t="s">
-        <v>196</v>
-      </c>
-      <c r="C139" t="n">
-        <v>3.2975</v>
-      </c>
-      <c r="D139" t="s">
-        <v>197</v>
-      </c>
-      <c r="E139" t="s">
-        <v>198</v>
-      </c>
-      <c r="F139" t="s">
-        <v>199</v>
-      </c>
-      <c r="G139" t="s">
-        <v>199</v>
-      </c>
-      <c r="H139" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>200</v>
+      <c r="H141" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="B142" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>206</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F142" t="s">
+        <v>207</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="B145" t="s">
+        <v>209</v>
+      </c>
+      <c r="C145" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="D145" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="D148" t="s">
+        <v>212</v>
+      </c>
+      <c r="E148" t="s">
+        <v>213</v>
+      </c>
+      <c r="F148" t="s">
+        <v>214</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E151" t="s">
+        <v>39</v>
+      </c>
+      <c r="F151" t="s">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>218</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.419</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>210</v>
+      </c>
+      <c r="F154" t="s">
+        <v>14</v>
+      </c>
+      <c r="G154" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>220</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.2975</v>
+      </c>
+      <c r="D157" t="s">
+        <v>221</v>
+      </c>
+      <c r="E157" t="s">
+        <v>222</v>
+      </c>
+      <c r="F157" t="s">
+        <v>223</v>
+      </c>
+      <c r="G157" t="s">
+        <v>223</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>225</v>
+      </c>
+      <c r="C160" t="n">
         <v>2.311</v>
       </c>
-      <c r="D142" t="s">
-        <v>133</v>
-      </c>
-      <c r="E142" t="s">
-        <v>202</v>
-      </c>
-      <c r="F142" t="s">
-        <v>203</v>
-      </c>
-      <c r="G142" t="s">
-        <v>204</v>
-      </c>
-      <c r="H142" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="B143" t="s">
-        <v>206</v>
-      </c>
-      <c r="C143" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D143" t="s">
-        <v>207</v>
-      </c>
-      <c r="E143" t="s">
-        <v>208</v>
-      </c>
-      <c r="F143" t="s">
-        <v>209</v>
-      </c>
-      <c r="G143" t="s">
-        <v>210</v>
-      </c>
-      <c r="H143" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="B146" t="s">
-        <v>201</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="D146" t="s">
-        <v>213</v>
-      </c>
-      <c r="E146" t="s">
-        <v>214</v>
-      </c>
-      <c r="F146" t="s">
-        <v>215</v>
-      </c>
-      <c r="G146" t="s">
-        <v>216</v>
-      </c>
-      <c r="H146" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>206</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D149" t="s">
-        <v>218</v>
-      </c>
-      <c r="E149" t="s">
-        <v>219</v>
-      </c>
-      <c r="F149" t="s">
-        <v>30</v>
-      </c>
-      <c r="G149" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>222</v>
-      </c>
-      <c r="C152" t="n">
-        <v>2.604</v>
-      </c>
-      <c r="D152" t="s">
-        <v>223</v>
-      </c>
-      <c r="E152" t="s">
-        <v>224</v>
-      </c>
-      <c r="F152" t="s">
-        <v>225</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="D160" t="s">
+        <v>128</v>
+      </c>
+      <c r="E160" t="s">
         <v>226</v>
       </c>
-      <c r="H152" t="s">
+      <c r="F160" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
+      <c r="G160" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
+      <c r="H160" t="s">
         <v>229</v>
-      </c>
-      <c r="C155" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D155" t="s">
-        <v>230</v>
-      </c>
-      <c r="E155" t="s">
-        <v>160</v>
-      </c>
-      <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>232</v>
-      </c>
-      <c r="C158" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>233</v>
-      </c>
-      <c r="E158" t="s">
-        <v>234</v>
-      </c>
-      <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>14</v>
-      </c>
-      <c r="H158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="B161" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C161" t="n">
-        <v>3.765</v>
+        <v>2.5</v>
       </c>
       <c r="D161" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E161" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="H161" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="B164" t="s">
+        <v>225</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D164" t="s">
+        <v>237</v>
+      </c>
+      <c r="E164" t="s">
+        <v>238</v>
+      </c>
+      <c r="F164" t="s">
+        <v>239</v>
+      </c>
+      <c r="G164" t="s">
         <v>240</v>
       </c>
-      <c r="C164" t="n">
-        <v>4</v>
-      </c>
-      <c r="D164" t="s">
-        <v>54</v>
-      </c>
-      <c r="E164" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>14</v>
-      </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -3138,253 +3058,212 @@
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
+        <v>230</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D167" t="s">
         <v>242</v>
       </c>
-      <c r="C167" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
         <v>243</v>
       </c>
-      <c r="E167" t="s">
-        <v>77</v>
-      </c>
       <c r="F167" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
         <v>244</v>
       </c>
-      <c r="C168" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="D168" t="s">
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" t="s">
         <v>245</v>
       </c>
-      <c r="E168" t="s">
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
         <v>246</v>
       </c>
-      <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
+      <c r="C170" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="D170" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
+      <c r="E170" t="s">
         <v>248</v>
       </c>
-      <c r="C171" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="F170" t="s">
         <v>249</v>
       </c>
-      <c r="E171" t="s">
-        <v>78</v>
-      </c>
-      <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>14</v>
+      <c r="G170" t="s">
+        <v>250</v>
+      </c>
+      <c r="H170" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>251</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.676</v>
-      </c>
-      <c r="D174" t="s">
-        <v>252</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="B173" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="D173" t="s">
         <v>253</v>
       </c>
-      <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" t="s">
+      <c r="E173" t="s">
+        <v>254</v>
+      </c>
+      <c r="F173" t="s">
+        <v>255</v>
+      </c>
+      <c r="G173" t="s">
+        <v>214</v>
+      </c>
+      <c r="H173" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" t="n">
-        <v>3.926</v>
-      </c>
-      <c r="D175" t="s">
-        <v>254</v>
-      </c>
-      <c r="E175" t="s">
-        <v>133</v>
-      </c>
-      <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="A177" t="s">
-        <v>255</v>
+      <c r="A175" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>257</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.923</v>
+      </c>
+      <c r="D176" t="s">
+        <v>258</v>
+      </c>
+      <c r="E176" t="s">
+        <v>167</v>
+      </c>
+      <c r="F176" t="s">
+        <v>14</v>
+      </c>
+      <c r="G176" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="B178" t="s">
-        <v>139</v>
-      </c>
-      <c r="C178" t="n">
-        <v>3.629</v>
-      </c>
-      <c r="D178" t="s">
-        <v>256</v>
-      </c>
-      <c r="E178" t="s">
-        <v>257</v>
-      </c>
-      <c r="F178" t="s">
-        <v>258</v>
-      </c>
-      <c r="G178" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" t="s">
+      <c r="A178" t="s">
         <v>259</v>
       </c>
     </row>
+    <row r="179" spans="1:8">
+      <c r="B179" t="s">
+        <v>260</v>
+      </c>
+      <c r="C179" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>261</v>
+      </c>
+      <c r="E179" t="s">
+        <v>262</v>
+      </c>
+      <c r="F179" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="181" spans="1:8">
-      <c r="B181" t="s">
-        <v>260</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.697</v>
-      </c>
-      <c r="D181" t="s">
-        <v>110</v>
-      </c>
-      <c r="E181" t="s">
-        <v>261</v>
-      </c>
-      <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="A183" t="s">
-        <v>262</v>
+      <c r="A181" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.765</v>
+      </c>
+      <c r="D182" t="s">
+        <v>264</v>
+      </c>
+      <c r="E182" t="s">
+        <v>191</v>
+      </c>
+      <c r="F182" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="B184" t="s">
-        <v>263</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.766</v>
-      </c>
-      <c r="D184" t="s">
-        <v>264</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="A184" t="s">
         <v>265</v>
       </c>
-      <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" t="s">
+    </row>
+    <row r="185" spans="1:8">
+      <c r="B185" t="s">
         <v>266</v>
       </c>
+      <c r="C185" t="n">
+        <v>4</v>
+      </c>
+      <c r="D185" t="s">
+        <v>54</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>14</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="B187" t="s">
-        <v>121</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="A187" t="s">
         <v>267</v>
-      </c>
-      <c r="E187" t="s">
-        <v>41</v>
-      </c>
-      <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s">
-        <v>14</v>
-      </c>
-      <c r="H187" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="B188" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C188" t="n">
-        <v>3.6925</v>
+        <v>3.375</v>
       </c>
       <c r="D188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E188" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
@@ -3398,16 +3277,16 @@
     </row>
     <row r="189" spans="1:8">
       <c r="B189" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="C189" t="n">
-        <v>3.857</v>
+        <v>3.69</v>
       </c>
       <c r="D189" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
@@ -3419,230 +3298,189 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
-      <c r="B190" t="s">
-        <v>123</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D190" t="s">
-        <v>267</v>
-      </c>
-      <c r="E190" t="s">
-        <v>41</v>
-      </c>
-      <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s">
-        <v>14</v>
-      </c>
-      <c r="H190" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="191" spans="1:8">
-      <c r="B191" t="s">
-        <v>120</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D191" t="s">
-        <v>267</v>
-      </c>
-      <c r="E191" t="s">
-        <v>41</v>
-      </c>
-      <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s">
-        <v>14</v>
-      </c>
-      <c r="H191" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
-      <c r="A193" t="s">
+      <c r="A191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="B192" t="s">
+        <v>274</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.846</v>
+      </c>
+      <c r="D192" t="s">
+        <v>275</v>
+      </c>
+      <c r="E192" t="s">
+        <v>78</v>
+      </c>
+      <c r="F192" t="s">
+        <v>14</v>
+      </c>
+      <c r="G192" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>277</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="D195" t="s">
+        <v>278</v>
+      </c>
+      <c r="E195" t="s">
+        <v>279</v>
+      </c>
+      <c r="F195" t="s">
+        <v>14</v>
+      </c>
+      <c r="G195" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="B194" t="s">
-        <v>271</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="D194" t="s">
-        <v>272</v>
-      </c>
-      <c r="E194" t="s">
-        <v>35</v>
-      </c>
-      <c r="F194" t="s">
-        <v>273</v>
-      </c>
-      <c r="G194" t="s">
-        <v>191</v>
-      </c>
-      <c r="H194" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="B197" t="s">
-        <v>275</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D197" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" t="s">
-        <v>168</v>
-      </c>
-      <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" t="s">
-        <v>14</v>
+      <c r="C196" t="n">
+        <v>3.926</v>
+      </c>
+      <c r="D196" t="s">
+        <v>280</v>
+      </c>
+      <c r="E196" t="s">
+        <v>128</v>
+      </c>
+      <c r="F196" t="s">
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>275</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.588</v>
-      </c>
-      <c r="D200" t="s">
-        <v>187</v>
-      </c>
-      <c r="E200" t="s">
-        <v>102</v>
-      </c>
-      <c r="F200" t="s">
-        <v>14</v>
-      </c>
-      <c r="G200" t="s">
-        <v>14</v>
-      </c>
-      <c r="H200" t="s">
-        <v>14</v>
+      <c r="B199" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.629</v>
+      </c>
+      <c r="D199" t="s">
+        <v>282</v>
+      </c>
+      <c r="E199" t="s">
+        <v>283</v>
+      </c>
+      <c r="F199" t="s">
+        <v>284</v>
+      </c>
+      <c r="G199" t="s">
+        <v>14</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="B203" t="s">
-        <v>278</v>
-      </c>
-      <c r="C203" t="n">
-        <v>3.882</v>
-      </c>
-      <c r="D203" t="s">
-        <v>279</v>
-      </c>
-      <c r="E203" t="s">
-        <v>14</v>
-      </c>
-      <c r="F203" t="s">
-        <v>280</v>
-      </c>
-      <c r="G203" t="s">
-        <v>14</v>
-      </c>
-      <c r="H203" t="s">
-        <v>14</v>
+      <c r="B202" t="s">
+        <v>286</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.697</v>
+      </c>
+      <c r="D202" t="s">
+        <v>110</v>
+      </c>
+      <c r="E202" t="s">
+        <v>287</v>
+      </c>
+      <c r="F202" t="s">
+        <v>14</v>
+      </c>
+      <c r="G202" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="B206" t="s">
-        <v>282</v>
-      </c>
-      <c r="C206" t="n">
-        <v>3.132</v>
-      </c>
-      <c r="D206" t="s">
-        <v>145</v>
-      </c>
-      <c r="E206" t="s">
-        <v>283</v>
-      </c>
-      <c r="F206" t="s">
-        <v>284</v>
-      </c>
-      <c r="G206" t="s">
-        <v>134</v>
-      </c>
-      <c r="H206" t="s">
+      <c r="B205" t="s">
+        <v>289</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.766</v>
+      </c>
+      <c r="D205" t="s">
+        <v>290</v>
+      </c>
+      <c r="E205" t="s">
+        <v>291</v>
+      </c>
+      <c r="F205" t="s">
+        <v>14</v>
+      </c>
+      <c r="G205" t="s">
+        <v>14</v>
+      </c>
+      <c r="H205" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>285</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.595</v>
-      </c>
-      <c r="D207" t="s">
-        <v>286</v>
-      </c>
-      <c r="E207" t="s">
-        <v>287</v>
-      </c>
-      <c r="F207" t="s">
-        <v>287</v>
-      </c>
-      <c r="G207" t="s">
-        <v>288</v>
-      </c>
-      <c r="H207" t="s">
-        <v>289</v>
+      <c r="A207" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="B208" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C208" t="n">
-        <v>3.008</v>
+        <v>3.6925</v>
       </c>
       <c r="D208" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E208" t="s">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="F208" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="G208" t="s">
         <v>14</v>
@@ -3653,52 +3491,52 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="B211" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C211" t="n">
-        <v>3.909</v>
+        <v>3.469</v>
       </c>
       <c r="D211" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E211" t="s">
-        <v>295</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="G211" t="s">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="H211" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="B214" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C214" t="n">
-        <v>3.881</v>
+        <v>3.333</v>
       </c>
       <c r="D214" t="s">
-        <v>297</v>
+        <v>35</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G214" t="s">
         <v>14</v>
@@ -3709,21 +3547,21 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="B217" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C217" t="n">
-        <v>3.736</v>
+        <v>3.588</v>
       </c>
       <c r="D217" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="E217" t="s">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="F217" t="s">
         <v>14</v>
@@ -3737,21 +3575,21 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="B220" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C220" t="n">
-        <v>3.8</v>
+        <v>3.692</v>
       </c>
       <c r="D220" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="E220" t="s">
-        <v>234</v>
+        <v>305</v>
       </c>
       <c r="F220" t="s">
         <v>14</v>
@@ -3763,151 +3601,151 @@
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
-      <c r="B221" t="s">
-        <v>303</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D221" t="s">
-        <v>233</v>
-      </c>
-      <c r="E221" t="s">
-        <v>234</v>
-      </c>
-      <c r="F221" t="s">
-        <v>14</v>
-      </c>
-      <c r="G221" t="s">
-        <v>14</v>
-      </c>
-      <c r="H221" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>124</v>
-      </c>
-      <c r="C222" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D222" t="s">
-        <v>233</v>
-      </c>
-      <c r="E222" t="s">
-        <v>234</v>
-      </c>
-      <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>14</v>
-      </c>
-      <c r="H222" t="s">
+      <c r="A222" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>183</v>
+      </c>
+      <c r="C223" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D223" t="s">
+        <v>307</v>
+      </c>
+      <c r="E223" t="s">
+        <v>149</v>
+      </c>
+      <c r="F223" t="s">
+        <v>14</v>
+      </c>
+      <c r="G223" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>305</v>
-      </c>
-      <c r="C225" t="n">
-        <v>3.231</v>
-      </c>
-      <c r="D225" t="s">
-        <v>306</v>
-      </c>
-      <c r="E225" t="s">
-        <v>243</v>
-      </c>
-      <c r="F225" t="s">
-        <v>160</v>
-      </c>
-      <c r="G225" t="s">
-        <v>160</v>
-      </c>
-      <c r="H225" t="s">
-        <v>14</v>
+      <c r="B224" t="s">
+        <v>180</v>
+      </c>
+      <c r="C224" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="D224" t="s">
+        <v>308</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" t="s">
+        <v>309</v>
+      </c>
+      <c r="G224" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>308</v>
-      </c>
-      <c r="C228" t="n">
-        <v>3.111</v>
-      </c>
-      <c r="D228" t="s">
-        <v>309</v>
-      </c>
-      <c r="E228" t="s">
-        <v>309</v>
-      </c>
-      <c r="F228" t="s">
-        <v>310</v>
-      </c>
-      <c r="G228" t="s">
-        <v>14</v>
-      </c>
-      <c r="H228" t="s">
+      <c r="B227" t="s">
+        <v>180</v>
+      </c>
+      <c r="C227" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="D227" t="s">
+        <v>311</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227" t="s">
+        <v>192</v>
+      </c>
+      <c r="G227" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="B229" t="s">
-        <v>311</v>
-      </c>
-      <c r="C229" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="A229" t="s">
         <v>312</v>
       </c>
-      <c r="E229" t="s">
+    </row>
+    <row r="230" spans="1:8">
+      <c r="B230" t="s">
         <v>313</v>
       </c>
-      <c r="F229" t="s">
+      <c r="C230" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="D230" t="s">
+        <v>152</v>
+      </c>
+      <c r="E230" t="s">
         <v>314</v>
       </c>
-      <c r="G229" t="s">
-        <v>172</v>
-      </c>
-      <c r="H229" t="s">
+      <c r="F230" t="s">
         <v>315</v>
       </c>
+      <c r="G230" t="s">
+        <v>129</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" t="s">
+      <c r="B231" t="s">
         <v>316</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.595</v>
+      </c>
+      <c r="D231" t="s">
+        <v>317</v>
+      </c>
+      <c r="E231" t="s">
+        <v>318</v>
+      </c>
+      <c r="F231" t="s">
+        <v>318</v>
+      </c>
+      <c r="G231" t="s">
+        <v>319</v>
+      </c>
+      <c r="H231" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="B232" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="C232" t="n">
-        <v>3.364</v>
+        <v>3.008</v>
       </c>
       <c r="D232" t="s">
-        <v>318</v>
+        <v>139</v>
       </c>
       <c r="E232" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="F232" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G232" t="s">
         <v>14</v>
@@ -3918,177 +3756,327 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="235" spans="1:8">
       <c r="B235" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C235" t="n">
-        <v>3.239</v>
+        <v>3.909</v>
       </c>
       <c r="D235" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E235" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F235" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="G235" t="s">
-        <v>324</v>
+        <v>14</v>
       </c>
       <c r="H235" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
-      <c r="B236" t="s">
-        <v>308</v>
-      </c>
-      <c r="C236" t="n">
-        <v>3.208</v>
-      </c>
-      <c r="D236" t="s">
-        <v>30</v>
-      </c>
-      <c r="E236" t="s">
-        <v>30</v>
-      </c>
-      <c r="F236" t="s">
-        <v>25</v>
-      </c>
-      <c r="G236" t="s">
-        <v>32</v>
-      </c>
-      <c r="H236" t="s">
-        <v>14</v>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="B239" t="s">
-        <v>305</v>
-      </c>
-      <c r="C239" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D239" t="s">
-        <v>23</v>
-      </c>
-      <c r="E239" t="s">
-        <v>272</v>
-      </c>
-      <c r="F239" t="s">
-        <v>151</v>
-      </c>
-      <c r="G239" t="s">
-        <v>14</v>
-      </c>
-      <c r="H239" t="s">
-        <v>14</v>
+      <c r="B238" t="s">
+        <v>300</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3.881</v>
+      </c>
+      <c r="D238" t="s">
+        <v>326</v>
+      </c>
+      <c r="E238" t="s">
+        <v>42</v>
+      </c>
+      <c r="F238" t="s">
+        <v>42</v>
+      </c>
+      <c r="G238" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="B242" t="s">
-        <v>120</v>
-      </c>
-      <c r="C242" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D242" t="s">
-        <v>230</v>
-      </c>
-      <c r="E242" t="s">
-        <v>160</v>
-      </c>
-      <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" t="s">
+      <c r="B241" t="s">
+        <v>303</v>
+      </c>
+      <c r="C241" t="n">
+        <v>3.736</v>
+      </c>
+      <c r="D241" t="s">
+        <v>328</v>
+      </c>
+      <c r="E241" t="s">
+        <v>329</v>
+      </c>
+      <c r="F241" t="s">
+        <v>14</v>
+      </c>
+      <c r="G241" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="B243" t="s">
-        <v>327</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D243" t="s">
-        <v>230</v>
-      </c>
-      <c r="E243" t="s">
-        <v>160</v>
-      </c>
-      <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>14</v>
-      </c>
-      <c r="H243" t="s">
-        <v>14</v>
+      <c r="A243" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="B244" t="s">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="C244" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>261</v>
+      </c>
+      <c r="E244" t="s">
+        <v>262</v>
+      </c>
+      <c r="F244" t="s">
+        <v>14</v>
+      </c>
+      <c r="G244" t="s">
+        <v>14</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>333</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.231</v>
+      </c>
+      <c r="D247" t="s">
+        <v>334</v>
+      </c>
+      <c r="E247" t="s">
+        <v>269</v>
+      </c>
+      <c r="F247" t="s">
+        <v>167</v>
+      </c>
+      <c r="G247" t="s">
+        <v>167</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>336</v>
+      </c>
+      <c r="C250" t="n">
+        <v>3.111</v>
+      </c>
+      <c r="D250" t="s">
+        <v>337</v>
+      </c>
+      <c r="E250" t="s">
+        <v>337</v>
+      </c>
+      <c r="F250" t="s">
+        <v>338</v>
+      </c>
+      <c r="G250" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>339</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>340</v>
+      </c>
+      <c r="E251" t="s">
+        <v>341</v>
+      </c>
+      <c r="F251" t="s">
+        <v>342</v>
+      </c>
+      <c r="G251" t="s">
+        <v>343</v>
+      </c>
+      <c r="H251" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="B254" t="s">
+        <v>346</v>
+      </c>
+      <c r="C254" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D254" t="s">
+        <v>347</v>
+      </c>
+      <c r="E254" t="s">
+        <v>111</v>
+      </c>
+      <c r="F254" t="s">
+        <v>348</v>
+      </c>
+      <c r="G254" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>346</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="D257" t="s">
+        <v>350</v>
+      </c>
+      <c r="E257" t="s">
+        <v>351</v>
+      </c>
+      <c r="F257" t="s">
+        <v>352</v>
+      </c>
+      <c r="G257" t="s">
+        <v>353</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
+      <c r="B258" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="D258" t="s">
+        <v>30</v>
+      </c>
+      <c r="E258" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" t="s">
+        <v>25</v>
+      </c>
+      <c r="G258" t="s">
+        <v>32</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
+      <c r="B261" t="s">
+        <v>333</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>23</v>
+      </c>
+      <c r="E261" t="s">
+        <v>297</v>
+      </c>
+      <c r="F261" t="s">
+        <v>158</v>
+      </c>
+      <c r="G261" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="A263" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
+      <c r="B264" t="s">
+        <v>216</v>
+      </c>
+      <c r="C264" t="n">
         <v>3.923</v>
       </c>
-      <c r="D244" t="s">
-        <v>230</v>
-      </c>
-      <c r="E244" t="s">
-        <v>160</v>
-      </c>
-      <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
-        <v>14</v>
-      </c>
-      <c r="H244" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="B245" t="s">
-        <v>121</v>
-      </c>
-      <c r="C245" t="n">
-        <v>3.923</v>
-      </c>
-      <c r="D245" t="s">
-        <v>230</v>
-      </c>
-      <c r="E245" t="s">
-        <v>160</v>
-      </c>
-      <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>14</v>
-      </c>
-      <c r="H245" t="s">
+      <c r="D264" t="s">
+        <v>258</v>
+      </c>
+      <c r="E264" t="s">
+        <v>167</v>
+      </c>
+      <c r="F264" t="s">
+        <v>14</v>
+      </c>
+      <c r="G264" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ACCT-209</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>1.08%</t>
+  </si>
+  <si>
     <t>NAFSTAD A</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>2.11%</t>
   </si>
   <si>
+    <t>4.04%</t>
+  </si>
+  <si>
     <t>ACCT-210</t>
   </si>
   <si>
@@ -100,6 +109,9 @@
     <t>7.50%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>ACCT-229</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>ACCT-315</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>3.23%</t>
   </si>
   <si>
+    <t>3.13%</t>
+  </si>
+  <si>
     <t>ACCT-328</t>
   </si>
   <si>
@@ -214,6 +232,9 @@
     <t>6.00%</t>
   </si>
   <si>
+    <t>1.96%</t>
+  </si>
+  <si>
     <t>ACCT-329</t>
   </si>
   <si>
@@ -232,6 +253,9 @@
     <t>0.82%</t>
   </si>
   <si>
+    <t>0.81%</t>
+  </si>
+  <si>
     <t>ACCT-403</t>
   </si>
   <si>
@@ -253,6 +277,9 @@
     <t>15.38%</t>
   </si>
   <si>
+    <t>7.14%</t>
+  </si>
+  <si>
     <t>ACCT-421</t>
   </si>
   <si>
@@ -328,6 +355,9 @@
     <t>1.18%</t>
   </si>
   <si>
+    <t>1.16%</t>
+  </si>
+  <si>
     <t>ACCT-629</t>
   </si>
   <si>
@@ -370,9 +400,6 @@
     <t>27.45%</t>
   </si>
   <si>
-    <t>1.96%</t>
-  </si>
-  <si>
     <t>ACCT-650</t>
   </si>
   <si>
@@ -406,6 +433,9 @@
     <t>3.17%</t>
   </si>
   <si>
+    <t>1.05%</t>
+  </si>
+  <si>
     <t>FINC-350</t>
   </si>
   <si>
@@ -457,6 +487,9 @@
     <t>3.76%</t>
   </si>
   <si>
+    <t>1.59%</t>
+  </si>
+  <si>
     <t>FINC-424</t>
   </si>
   <si>
@@ -535,6 +568,9 @@
     <t>2.04%</t>
   </si>
   <si>
+    <t>3.92%</t>
+  </si>
+  <si>
     <t>FINC-645</t>
   </si>
   <si>
@@ -619,6 +655,9 @@
     <t>2.55%</t>
   </si>
   <si>
+    <t>2.89%</t>
+  </si>
+  <si>
     <t>ISYS-210</t>
   </si>
   <si>
@@ -724,12 +763,12 @@
     <t>2.53%</t>
   </si>
   <si>
+    <t>5.71%</t>
+  </si>
+  <si>
     <t>MGMT-211</t>
   </si>
   <si>
-    <t>5.71%</t>
-  </si>
-  <si>
     <t>48.57%</t>
   </si>
   <si>
@@ -739,6 +778,9 @@
     <t>8.57%</t>
   </si>
   <si>
+    <t>2.78%</t>
+  </si>
+  <si>
     <t>MGMT-212</t>
   </si>
   <si>
@@ -772,6 +814,9 @@
     <t>2.90%</t>
   </si>
   <si>
+    <t>0.48%</t>
+  </si>
+  <si>
     <t>MGMT-363</t>
   </si>
   <si>
@@ -784,6 +829,9 @@
     <t>19.74%</t>
   </si>
   <si>
+    <t>1.30%</t>
+  </si>
+  <si>
     <t>MGMT-373</t>
   </si>
   <si>
@@ -952,6 +1000,9 @@
     <t>94.12%</t>
   </si>
   <si>
+    <t>5.56%</t>
+  </si>
+  <si>
     <t>MKTG-409</t>
   </si>
   <si>
@@ -1048,9 +1099,6 @@
     <t>4.88%</t>
   </si>
   <si>
-    <t>2.44%</t>
-  </si>
-  <si>
     <t>SCMT-340</t>
   </si>
   <si>
@@ -1076,6 +1124,9 @@
   </si>
   <si>
     <t>4.35%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
   </si>
   <si>
     <t>SCMT-400</t>
@@ -1119,12 +1170,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1418,15 +1468,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1451,2633 +1501,2924 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.054</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>2.926</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
         <v>2.65</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
         <v>3.083</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
         <v>2.821</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>3.438</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>3.242</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C26" t="n">
         <v>2.839</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C29" t="n">
         <v>3.48</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C32" t="n">
         <v>3.38</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
         <v>3.75</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C38" t="n">
         <v>3.077</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
         <v>3.7215</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C44" t="n">
         <v>3.157</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C50" t="n">
         <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
         <v>3.978</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="B56" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C56" t="n">
         <v>3.6335</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C59" t="n">
         <v>3.563</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C62" t="n">
         <v>3.739</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C65" t="n">
         <v>3.667</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C71" t="n">
         <v>3.686</v>
       </c>
       <c r="D71" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F71" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C74" t="n">
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C80" t="n">
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C83" t="n">
         <v>2.778</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G83" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H83" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C86" t="n">
         <v>3.556</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C89" t="n">
         <v>3.517</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F89" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C92" t="n">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F92" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C95" t="n">
         <v>2.65</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E95" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G95" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I95" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C98" t="n">
         <v>2.889</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F98" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C101" t="n">
         <v>3.286</v>
       </c>
       <c r="D101" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="B104" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C104" t="n">
         <v>3.9</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E104" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="B107" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C107" t="n">
         <v>3.46</v>
       </c>
       <c r="D107" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="B110" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C110" t="n">
         <v>3.3215</v>
       </c>
       <c r="D110" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F110" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="B113" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C113" t="n">
         <v>3.51</v>
       </c>
       <c r="D113" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E113" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F113" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G113" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I113" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C116" t="n">
         <v>3.333</v>
       </c>
       <c r="D116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E116" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C119" t="n">
         <v>3.3135</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="E119" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="F119" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C122" t="n">
         <v>3.954</v>
       </c>
       <c r="D122" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E122" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C123" t="n">
         <v>3.9</v>
       </c>
       <c r="D123" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="E123" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C126" t="n">
         <v>3.857</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C129" t="n">
         <v>3.882</v>
       </c>
       <c r="D129" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="E129" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C132" t="n">
         <v>3.647</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E132" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F132" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="B135" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C135" t="n">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="B138" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C138" t="n">
         <v>3.047</v>
       </c>
       <c r="D138" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="E138" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F138" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G138" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="H138" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>212</v>
+      </c>
+      <c r="I138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="B141" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C141" t="n">
         <v>3.549</v>
       </c>
       <c r="D141" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E141" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G141" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C142" t="n">
         <v>3.6</v>
       </c>
       <c r="D142" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="B145" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C145" t="n">
         <v>3.125</v>
       </c>
       <c r="D145" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E145" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C148" t="n">
         <v>3.526</v>
       </c>
       <c r="D148" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E148" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F148" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C151" t="n">
         <v>3.25</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H151" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C154" t="n">
         <v>3.419</v>
       </c>
       <c r="D154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E154" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H154" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C157" t="n">
         <v>3.2975</v>
       </c>
       <c r="D157" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E157" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F157" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G157" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C160" t="n">
         <v>2.311</v>
       </c>
       <c r="D160" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E160" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F160" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="G160" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="H160" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>242</v>
+      </c>
+      <c r="I160" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="B161" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C161" t="n">
         <v>2.5</v>
       </c>
       <c r="D161" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E161" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F161" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="G161" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="H161" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>248</v>
+      </c>
+      <c r="I161" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="B164" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C164" t="n">
         <v>2.43</v>
       </c>
       <c r="D164" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="E164" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F164" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G164" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H164" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>249</v>
+      </c>
+      <c r="I164" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C167" t="n">
         <v>2.625</v>
       </c>
       <c r="D167" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="E167" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>258</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C170" t="n">
         <v>2.604</v>
       </c>
       <c r="D170" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="E170" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F170" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G170" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H170" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I170" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C173" t="n">
         <v>2.96</v>
       </c>
       <c r="D173" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E173" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F173" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G173" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I173" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="C176" t="n">
         <v>3.923</v>
       </c>
       <c r="D176" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E176" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="B179" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="C179" t="n">
         <v>3.8</v>
       </c>
       <c r="D179" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E179" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G179" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="B182" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="C182" t="n">
         <v>3.765</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="E182" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I182" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="B185" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C185" t="n">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G185" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="B188" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="C188" t="n">
         <v>3.375</v>
       </c>
       <c r="D188" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="E188" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="B189" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C189" t="n">
         <v>3.69</v>
       </c>
       <c r="D189" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="E189" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G189" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I189" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="B192" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C192" t="n">
         <v>3.846</v>
       </c>
       <c r="D192" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="E192" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="B195" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C195" t="n">
         <v>3.676</v>
       </c>
       <c r="D195" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="E195" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I195" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C196" t="n">
         <v>3.926</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="E196" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I196" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C199" t="n">
         <v>3.629</v>
       </c>
       <c r="D199" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="E199" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F199" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C202" t="n">
         <v>3.697</v>
       </c>
       <c r="D202" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E202" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H202" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I202" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="C205" t="n">
         <v>3.766</v>
       </c>
       <c r="D205" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="E205" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G205" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H205" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I205" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C208" t="n">
         <v>3.6925</v>
       </c>
       <c r="D208" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="E208" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="F208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I208" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="C211" t="n">
         <v>3.469</v>
       </c>
       <c r="D211" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F211" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G211" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="H211" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>314</v>
+      </c>
+      <c r="I211" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C214" t="n">
         <v>3.333</v>
       </c>
       <c r="D214" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E214" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="F214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G214" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H214" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I214" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C217" t="n">
         <v>3.588</v>
       </c>
       <c r="D217" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H217" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I217" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C220" t="n">
         <v>3.692</v>
       </c>
       <c r="D220" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="E220" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G220" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H220" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C223" t="n">
         <v>3.778</v>
       </c>
       <c r="D223" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E223" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G223" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H223" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I223" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="B224" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C224" t="n">
         <v>3.931</v>
       </c>
       <c r="D224" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="E224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F224" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="G224" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H224" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I224" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="B227" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C227" t="n">
         <v>3.882</v>
       </c>
       <c r="D227" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F227" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="G227" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H227" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I227" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="B230" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C230" t="n">
         <v>3.132</v>
       </c>
       <c r="D230" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E230" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="F230" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="G230" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="H230" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="B231" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C231" t="n">
         <v>2.595</v>
       </c>
       <c r="D231" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="E231" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F231" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="G231" t="s">
+        <v>336</v>
+      </c>
+      <c r="H231" t="s">
+        <v>337</v>
+      </c>
+      <c r="I231" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="B232" t="s">
         <v>319</v>
-      </c>
-      <c r="H231" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="B232" t="s">
-        <v>303</v>
       </c>
       <c r="C232" t="n">
         <v>3.008</v>
       </c>
       <c r="D232" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E232" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F232" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="G232" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H232" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I232" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
       <c r="B235" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C235" t="n">
         <v>3.909</v>
       </c>
       <c r="D235" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="E235" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G235" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H235" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I235" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C238" t="n">
         <v>3.881</v>
       </c>
       <c r="D238" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="E238" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F238" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G238" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H238" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C241" t="n">
         <v>3.736</v>
       </c>
       <c r="D241" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="E241" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C244" t="n">
         <v>3.8</v>
       </c>
       <c r="D244" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="E244" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H244" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I244" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C247" t="n">
         <v>3.231</v>
       </c>
       <c r="D247" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E247" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="F247" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="G247" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="H247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I247" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C250" t="n">
         <v>3.111</v>
       </c>
       <c r="D250" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="E250" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="F250" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G250" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H250" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I250" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C251" t="n">
         <v>3.22</v>
       </c>
       <c r="D251" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="E251" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="F251" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="G251" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H251" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I251" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C254" t="n">
         <v>3.364</v>
       </c>
       <c r="D254" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="E254" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F254" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="G254" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H254" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I254" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C257" t="n">
         <v>3.239</v>
       </c>
       <c r="D257" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="E257" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="F257" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="G257" t="s">
+        <v>369</v>
+      </c>
+      <c r="H257" t="s">
+        <v>15</v>
+      </c>
+      <c r="I257" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="B258" t="s">
         <v>353</v>
-      </c>
-      <c r="H257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>336</v>
       </c>
       <c r="C258" t="n">
         <v>3.208</v>
       </c>
       <c r="D258" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E258" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F258" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G258" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H258" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I258" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9">
       <c r="B261" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C261" t="n">
         <v>3.2</v>
       </c>
       <c r="D261" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E261" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="F261" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G261" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H261" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I261" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9">
       <c r="B264" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C264" t="n">
         <v>3.923</v>
       </c>
       <c r="D264" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="E264" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G264" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H264" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I264" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="361">
   <si>
     <t>Course</t>
   </si>
@@ -1051,6 +1051,15 @@
     <t>2.44%</t>
   </si>
   <si>
+    <t>SCMT-305</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>53.85%</t>
+  </si>
+  <si>
     <t>SCMT-340</t>
   </si>
   <si>
@@ -1061,6 +1070,12 @@
   </si>
   <si>
     <t>18.18%</t>
+  </si>
+  <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>21.43%</t>
   </si>
   <si>
     <t>SCMT-364</t>
@@ -1418,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3955,16 +3970,16 @@
         <v>346</v>
       </c>
       <c r="C254" t="n">
-        <v>3.364</v>
+        <v>3.462</v>
       </c>
       <c r="D254" t="s">
         <v>347</v>
       </c>
       <c r="E254" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="F254" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="G254" t="s">
         <v>14</v>
@@ -3975,108 +3990,164 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="B257" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C257" t="n">
-        <v>3.239</v>
+        <v>3.364</v>
       </c>
       <c r="D257" t="s">
         <v>350</v>
       </c>
       <c r="E257" t="s">
+        <v>111</v>
+      </c>
+      <c r="F257" t="s">
         <v>351</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
+        <v>14</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
         <v>352</v>
       </c>
-      <c r="G257" t="s">
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>346</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D260" t="s">
+        <v>210</v>
+      </c>
+      <c r="E260" t="s">
+        <v>139</v>
+      </c>
+      <c r="F260" t="s">
         <v>353</v>
       </c>
-      <c r="H257" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>336</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3.208</v>
-      </c>
-      <c r="D258" t="s">
-        <v>30</v>
-      </c>
-      <c r="E258" t="s">
-        <v>30</v>
-      </c>
-      <c r="F258" t="s">
-        <v>25</v>
-      </c>
-      <c r="G258" t="s">
-        <v>32</v>
-      </c>
-      <c r="H258" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
+      <c r="G260" t="s">
+        <v>14</v>
+      </c>
+      <c r="H260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>333</v>
-      </c>
-      <c r="C261" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="D261" t="s">
-        <v>23</v>
-      </c>
-      <c r="E261" t="s">
-        <v>297</v>
-      </c>
-      <c r="F261" t="s">
-        <v>158</v>
-      </c>
-      <c r="G261" t="s">
-        <v>14</v>
-      </c>
-      <c r="H261" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="263" spans="1:8">
-      <c r="A263" t="s">
+      <c r="B263" t="s">
+        <v>349</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.239</v>
+      </c>
+      <c r="D263" t="s">
         <v>355</v>
+      </c>
+      <c r="E263" t="s">
+        <v>356</v>
+      </c>
+      <c r="F263" t="s">
+        <v>357</v>
+      </c>
+      <c r="G263" t="s">
+        <v>358</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="B264" t="s">
+        <v>336</v>
+      </c>
+      <c r="C264" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="D264" t="s">
+        <v>30</v>
+      </c>
+      <c r="E264" t="s">
+        <v>30</v>
+      </c>
+      <c r="F264" t="s">
+        <v>25</v>
+      </c>
+      <c r="G264" t="s">
+        <v>32</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="A266" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
+      <c r="B267" t="s">
+        <v>333</v>
+      </c>
+      <c r="C267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>23</v>
+      </c>
+      <c r="E267" t="s">
+        <v>297</v>
+      </c>
+      <c r="F267" t="s">
+        <v>158</v>
+      </c>
+      <c r="G267" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="A269" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
+      <c r="B270" t="s">
         <v>216</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C270" t="n">
         <v>3.923</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D270" t="s">
         <v>258</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E270" t="s">
         <v>167</v>
       </c>
-      <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>14</v>
-      </c>
-      <c r="H264" t="s">
+      <c r="F270" t="s">
+        <v>14</v>
+      </c>
+      <c r="G270" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" t="s">
         <v>14</v>
       </c>
     </row>
